--- a/downloaded_files/CMPS403_Tutorial-35896.xlsx
+++ b/downloaded_files/CMPS403_Tutorial-35896.xlsx
@@ -141,13 +141,13 @@
     <x:t>Abdallah Mohamed ElMahdy</x:t>
   </x:si>
   <x:si>
-    <x:t>1220016</x:t>
-  </x:si>
-  <x:si>
-    <x:t>علي علاء عبدالعزيز نيازي</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Ali Alaa Abd Elaziz Niazi</x:t>
+    <x:t>1161335</x:t>
+  </x:si>
+  <x:si>
+    <x:t>عمر عصام الدين عبدالرؤوف محمد</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Omar Essam El Din Abdel Raouf</x:t>
   </x:si>
   <x:si>
     <x:t>1220309</x:t>
@@ -1127,7 +1127,7 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="E12" s="3">
-        <x:v>45915.9984759606</x:v>
+        <x:v>45927.4274449074</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1191,7 +1191,7 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45916.0043694792</x:v>
+        <x:v>45927.5938108449</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>

--- a/downloaded_files/CMPS403_Tutorial-35896.xlsx
+++ b/downloaded_files/CMPS403_Tutorial-35896.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="95">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="89">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -105,15 +105,6 @@
     <x:t>Sohaila</x:t>
   </x:si>
   <x:si>
-    <x:t>1210247</x:t>
-  </x:si>
-  <x:si>
-    <x:t>عائشة توفيق محمود توفيق عصمت</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Aisha Tawfik Mahmoud Tawfik Esmat</x:t>
-  </x:si>
-  <x:si>
     <x:t>1220253</x:t>
   </x:si>
   <x:si>
@@ -166,15 +157,6 @@
   </x:si>
   <x:si>
     <x:t>Amr Ehab Mokhtar</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1210275</x:t>
-  </x:si>
-  <x:si>
-    <x:t>فاطمه جمال زين العابدين محمد</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Fatma Gamal Zeinelabdeen</x:t>
   </x:si>
   <x:si>
     <x:t>4230161</x:t>
@@ -416,7 +398,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E31" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E29" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -716,7 +698,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T31"/>
+  <x:dimension ref="A1:T29"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1063,7 +1045,7 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="E10" s="3">
-        <x:v>45915.9953478356</x:v>
+        <x:v>45916.5527510417</x:v>
       </x:c>
       <x:c r="F10" s="2" t="s"/>
       <x:c r="G10" s="2" t="s"/>
@@ -1095,7 +1077,7 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="E11" s="3">
-        <x:v>45916.5527510417</x:v>
+        <x:v>45927.4274449074</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s"/>
       <x:c r="G11" s="2" t="s"/>
@@ -1127,7 +1109,7 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="E12" s="3">
-        <x:v>45927.4274449074</x:v>
+        <x:v>45916.0073168981</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1159,7 +1141,7 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45916.0073168981</x:v>
+        <x:v>45927.5938108449</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1191,7 +1173,7 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45927.5938108449</x:v>
+        <x:v>45915.9948021181</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1223,7 +1205,7 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45915.9948021181</x:v>
+        <x:v>45916.0081829051</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1255,7 +1237,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45916.0081829051</x:v>
+        <x:v>45915.9959137731</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1287,7 +1269,7 @@
         <x:v>52</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45915.9978388079</x:v>
+        <x:v>45918.1144121528</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1319,7 +1301,7 @@
         <x:v>55</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45915.9959137731</x:v>
+        <x:v>45916.0124269676</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1351,7 +1333,7 @@
         <x:v>58</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45918.1144121528</x:v>
+        <x:v>45916.0105162847</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1383,7 +1365,7 @@
         <x:v>61</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45916.0124269676</x:v>
+        <x:v>45916.0077419329</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1415,7 +1397,7 @@
         <x:v>64</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45916.0105162847</x:v>
+        <x:v>45916.0008125</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1447,7 +1429,7 @@
         <x:v>67</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45916.0077419329</x:v>
+        <x:v>45916.495316088</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1479,7 +1461,7 @@
         <x:v>70</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45916.0008125</x:v>
+        <x:v>45916.0067437847</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1511,7 +1493,7 @@
         <x:v>73</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45916.495316088</x:v>
+        <x:v>45916.0087601505</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1543,7 +1525,7 @@
         <x:v>76</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45916.0067437847</x:v>
+        <x:v>45916.0059218403</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1575,7 +1557,7 @@
         <x:v>79</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45916.0087601505</x:v>
+        <x:v>45915.9935680903</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1607,7 +1589,7 @@
         <x:v>82</x:v>
       </x:c>
       <x:c r="E27" s="3">
-        <x:v>45916.0059218403</x:v>
+        <x:v>45916.0031484607</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -1639,7 +1621,7 @@
         <x:v>85</x:v>
       </x:c>
       <x:c r="E28" s="3">
-        <x:v>45915.9935680903</x:v>
+        <x:v>45916.0048866088</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s"/>
       <x:c r="G28" s="2" t="s"/>
@@ -1671,7 +1653,7 @@
         <x:v>88</x:v>
       </x:c>
       <x:c r="E29" s="3">
-        <x:v>45916.0031484607</x:v>
+        <x:v>45916.4881518519</x:v>
       </x:c>
       <x:c r="F29" s="2" t="s"/>
       <x:c r="G29" s="2" t="s"/>
@@ -1688,70 +1670,6 @@
       <x:c r="R29" s="2" t="s"/>
       <x:c r="S29" s="2" t="s"/>
       <x:c r="T29" s="2" t="s"/>
-    </x:row>
-    <x:row r="30" spans="1:20">
-      <x:c r="A30" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B30" s="2" t="s">
-        <x:v>89</x:v>
-      </x:c>
-      <x:c r="C30" s="2" t="s">
-        <x:v>90</x:v>
-      </x:c>
-      <x:c r="D30" s="2" t="s">
-        <x:v>91</x:v>
-      </x:c>
-      <x:c r="E30" s="3">
-        <x:v>45916.0048866088</x:v>
-      </x:c>
-      <x:c r="F30" s="2" t="s"/>
-      <x:c r="G30" s="2" t="s"/>
-      <x:c r="H30" s="2" t="s"/>
-      <x:c r="I30" s="2" t="s"/>
-      <x:c r="J30" s="2" t="s"/>
-      <x:c r="K30" s="2" t="s"/>
-      <x:c r="L30" s="2" t="s"/>
-      <x:c r="M30" s="2" t="s"/>
-      <x:c r="N30" s="2" t="s"/>
-      <x:c r="O30" s="2" t="s"/>
-      <x:c r="P30" s="2" t="s"/>
-      <x:c r="Q30" s="2" t="s"/>
-      <x:c r="R30" s="2" t="s"/>
-      <x:c r="S30" s="2" t="s"/>
-      <x:c r="T30" s="2" t="s"/>
-    </x:row>
-    <x:row r="31" spans="1:20">
-      <x:c r="A31" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B31" s="2" t="s">
-        <x:v>92</x:v>
-      </x:c>
-      <x:c r="C31" s="2" t="s">
-        <x:v>93</x:v>
-      </x:c>
-      <x:c r="D31" s="2" t="s">
-        <x:v>94</x:v>
-      </x:c>
-      <x:c r="E31" s="3">
-        <x:v>45916.4881518519</x:v>
-      </x:c>
-      <x:c r="F31" s="2" t="s"/>
-      <x:c r="G31" s="2" t="s"/>
-      <x:c r="H31" s="2" t="s"/>
-      <x:c r="I31" s="2" t="s"/>
-      <x:c r="J31" s="2" t="s"/>
-      <x:c r="K31" s="2" t="s"/>
-      <x:c r="L31" s="2" t="s"/>
-      <x:c r="M31" s="2" t="s"/>
-      <x:c r="N31" s="2" t="s"/>
-      <x:c r="O31" s="2" t="s"/>
-      <x:c r="P31" s="2" t="s"/>
-      <x:c r="Q31" s="2" t="s"/>
-      <x:c r="R31" s="2" t="s"/>
-      <x:c r="S31" s="2" t="s"/>
-      <x:c r="T31" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/CMPS403_Tutorial-35896.xlsx
+++ b/downloaded_files/CMPS403_Tutorial-35896.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="89">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="86">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -112,15 +112,6 @@
   </x:si>
   <x:si>
     <x:t>Abdelrahman Emad Eldeen Mohamed Ibrahim Mohamed Fatouh</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1220096</x:t>
-  </x:si>
-  <x:si>
-    <x:t>عبدالرحمن محمد فتحى محمد موسى</x:t>
-  </x:si>
-  <x:si>
-    <x:t>abdelrahman mohamed fathy</x:t>
   </x:si>
   <x:si>
     <x:t>1220257</x:t>
@@ -398,7 +389,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E29" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E28" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -698,7 +689,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T29"/>
+  <x:dimension ref="A1:T28"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1077,7 +1068,7 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="E11" s="3">
-        <x:v>45927.4274449074</x:v>
+        <x:v>45916.0073168981</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s"/>
       <x:c r="G11" s="2" t="s"/>
@@ -1109,7 +1100,7 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="E12" s="3">
-        <x:v>45916.0073168981</x:v>
+        <x:v>45927.5938108449</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1141,7 +1132,7 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45927.5938108449</x:v>
+        <x:v>45915.9948021181</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1173,7 +1164,7 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45915.9948021181</x:v>
+        <x:v>45916.0081829051</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1205,7 +1196,7 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45916.0081829051</x:v>
+        <x:v>45915.9959137731</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1237,7 +1228,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45915.9959137731</x:v>
+        <x:v>45918.1144121528</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1269,7 +1260,7 @@
         <x:v>52</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45918.1144121528</x:v>
+        <x:v>45916.0124269676</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1301,7 +1292,7 @@
         <x:v>55</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45916.0124269676</x:v>
+        <x:v>45916.0105162847</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1333,7 +1324,7 @@
         <x:v>58</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45916.0105162847</x:v>
+        <x:v>45916.0077419329</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1365,7 +1356,7 @@
         <x:v>61</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45916.0077419329</x:v>
+        <x:v>45916.0008125</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1397,7 +1388,7 @@
         <x:v>64</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45916.0008125</x:v>
+        <x:v>45916.495316088</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1429,7 +1420,7 @@
         <x:v>67</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45916.495316088</x:v>
+        <x:v>45916.0067437847</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1461,7 +1452,7 @@
         <x:v>70</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45916.0067437847</x:v>
+        <x:v>45916.0087601505</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1493,7 +1484,7 @@
         <x:v>73</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45916.0087601505</x:v>
+        <x:v>45916.0059218403</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1525,7 +1516,7 @@
         <x:v>76</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45916.0059218403</x:v>
+        <x:v>45915.9935680903</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1557,7 +1548,7 @@
         <x:v>79</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45915.9935680903</x:v>
+        <x:v>45916.0031484607</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1589,7 +1580,7 @@
         <x:v>82</x:v>
       </x:c>
       <x:c r="E27" s="3">
-        <x:v>45916.0031484607</x:v>
+        <x:v>45916.0048866088</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -1621,7 +1612,7 @@
         <x:v>85</x:v>
       </x:c>
       <x:c r="E28" s="3">
-        <x:v>45916.0048866088</x:v>
+        <x:v>45916.4881518519</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s"/>
       <x:c r="G28" s="2" t="s"/>
@@ -1638,38 +1629,6 @@
       <x:c r="R28" s="2" t="s"/>
       <x:c r="S28" s="2" t="s"/>
       <x:c r="T28" s="2" t="s"/>
-    </x:row>
-    <x:row r="29" spans="1:20">
-      <x:c r="A29" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B29" s="2" t="s">
-        <x:v>86</x:v>
-      </x:c>
-      <x:c r="C29" s="2" t="s">
-        <x:v>87</x:v>
-      </x:c>
-      <x:c r="D29" s="2" t="s">
-        <x:v>88</x:v>
-      </x:c>
-      <x:c r="E29" s="3">
-        <x:v>45916.4881518519</x:v>
-      </x:c>
-      <x:c r="F29" s="2" t="s"/>
-      <x:c r="G29" s="2" t="s"/>
-      <x:c r="H29" s="2" t="s"/>
-      <x:c r="I29" s="2" t="s"/>
-      <x:c r="J29" s="2" t="s"/>
-      <x:c r="K29" s="2" t="s"/>
-      <x:c r="L29" s="2" t="s"/>
-      <x:c r="M29" s="2" t="s"/>
-      <x:c r="N29" s="2" t="s"/>
-      <x:c r="O29" s="2" t="s"/>
-      <x:c r="P29" s="2" t="s"/>
-      <x:c r="Q29" s="2" t="s"/>
-      <x:c r="R29" s="2" t="s"/>
-      <x:c r="S29" s="2" t="s"/>
-      <x:c r="T29" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/CMPS403_Tutorial-35896.xlsx
+++ b/downloaded_files/CMPS403_Tutorial-35896.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="86">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="83">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -265,15 +265,6 @@
   </x:si>
   <x:si>
     <x:t>Yara Aly Mohamed Senousy</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1210421</x:t>
-  </x:si>
-  <x:si>
-    <x:t>يوسف عبدالنبى عويس خلف طلبه</x:t>
-  </x:si>
-  <x:si>
-    <x:t>youssef Abdelnaby Awais Khalaf Tolba</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -389,7 +380,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E28" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E27" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -689,7 +680,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T28"/>
+  <x:dimension ref="A1:T27"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1597,38 +1588,6 @@
       <x:c r="R27" s="2" t="s"/>
       <x:c r="S27" s="2" t="s"/>
       <x:c r="T27" s="2" t="s"/>
-    </x:row>
-    <x:row r="28" spans="1:20">
-      <x:c r="A28" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B28" s="2" t="s">
-        <x:v>83</x:v>
-      </x:c>
-      <x:c r="C28" s="2" t="s">
-        <x:v>84</x:v>
-      </x:c>
-      <x:c r="D28" s="2" t="s">
-        <x:v>85</x:v>
-      </x:c>
-      <x:c r="E28" s="3">
-        <x:v>45916.4881518519</x:v>
-      </x:c>
-      <x:c r="F28" s="2" t="s"/>
-      <x:c r="G28" s="2" t="s"/>
-      <x:c r="H28" s="2" t="s"/>
-      <x:c r="I28" s="2" t="s"/>
-      <x:c r="J28" s="2" t="s"/>
-      <x:c r="K28" s="2" t="s"/>
-      <x:c r="L28" s="2" t="s"/>
-      <x:c r="M28" s="2" t="s"/>
-      <x:c r="N28" s="2" t="s"/>
-      <x:c r="O28" s="2" t="s"/>
-      <x:c r="P28" s="2" t="s"/>
-      <x:c r="Q28" s="2" t="s"/>
-      <x:c r="R28" s="2" t="s"/>
-      <x:c r="S28" s="2" t="s"/>
-      <x:c r="T28" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/CMPS403_Tutorial-35896.xlsx
+++ b/downloaded_files/CMPS403_Tutorial-35896.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="83">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="80">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -121,15 +121,6 @@
   </x:si>
   <x:si>
     <x:t>Abdallah Mohamed ElMahdy</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1161335</x:t>
-  </x:si>
-  <x:si>
-    <x:t>عمر عصام الدين عبدالرؤوف محمد</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Omar Essam El Din Abdel Raouf</x:t>
   </x:si>
   <x:si>
     <x:t>1220309</x:t>
@@ -380,7 +371,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E27" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E26" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -680,7 +671,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T27"/>
+  <x:dimension ref="A1:T26"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1091,7 +1082,7 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="E12" s="3">
-        <x:v>45927.5938108449</x:v>
+        <x:v>45915.9948021181</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1123,7 +1114,7 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45915.9948021181</x:v>
+        <x:v>45916.0081829051</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1155,7 +1146,7 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45916.0081829051</x:v>
+        <x:v>45915.9959137731</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1187,7 +1178,7 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45915.9959137731</x:v>
+        <x:v>45918.1144121528</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1219,7 +1210,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45918.1144121528</x:v>
+        <x:v>45916.0124269676</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1251,7 +1242,7 @@
         <x:v>52</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45916.0124269676</x:v>
+        <x:v>45916.0105162847</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1283,7 +1274,7 @@
         <x:v>55</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45916.0105162847</x:v>
+        <x:v>45916.0077419329</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1315,7 +1306,7 @@
         <x:v>58</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45916.0077419329</x:v>
+        <x:v>45916.0008125</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1347,7 +1338,7 @@
         <x:v>61</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45916.0008125</x:v>
+        <x:v>45916.495316088</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1379,7 +1370,7 @@
         <x:v>64</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45916.495316088</x:v>
+        <x:v>45916.0067437847</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1411,7 +1402,7 @@
         <x:v>67</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45916.0067437847</x:v>
+        <x:v>45916.0087601505</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1443,7 +1434,7 @@
         <x:v>70</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45916.0087601505</x:v>
+        <x:v>45916.0059218403</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1475,7 +1466,7 @@
         <x:v>73</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45916.0059218403</x:v>
+        <x:v>45915.9935680903</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1507,7 +1498,7 @@
         <x:v>76</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45915.9935680903</x:v>
+        <x:v>45916.0031484607</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1539,7 +1530,7 @@
         <x:v>79</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45916.0031484607</x:v>
+        <x:v>45916.0048866088</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1556,38 +1547,6 @@
       <x:c r="R26" s="2" t="s"/>
       <x:c r="S26" s="2" t="s"/>
       <x:c r="T26" s="2" t="s"/>
-    </x:row>
-    <x:row r="27" spans="1:20">
-      <x:c r="A27" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B27" s="2" t="s">
-        <x:v>80</x:v>
-      </x:c>
-      <x:c r="C27" s="2" t="s">
-        <x:v>81</x:v>
-      </x:c>
-      <x:c r="D27" s="2" t="s">
-        <x:v>82</x:v>
-      </x:c>
-      <x:c r="E27" s="3">
-        <x:v>45916.0048866088</x:v>
-      </x:c>
-      <x:c r="F27" s="2" t="s"/>
-      <x:c r="G27" s="2" t="s"/>
-      <x:c r="H27" s="2" t="s"/>
-      <x:c r="I27" s="2" t="s"/>
-      <x:c r="J27" s="2" t="s"/>
-      <x:c r="K27" s="2" t="s"/>
-      <x:c r="L27" s="2" t="s"/>
-      <x:c r="M27" s="2" t="s"/>
-      <x:c r="N27" s="2" t="s"/>
-      <x:c r="O27" s="2" t="s"/>
-      <x:c r="P27" s="2" t="s"/>
-      <x:c r="Q27" s="2" t="s"/>
-      <x:c r="R27" s="2" t="s"/>
-      <x:c r="S27" s="2" t="s"/>
-      <x:c r="T27" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/CMPS403_Tutorial-35896.xlsx
+++ b/downloaded_files/CMPS403_Tutorial-35896.xlsx
@@ -246,7 +246,7 @@
     <x:t>نور محمد السيد عبدالله خليل طنطاوي</x:t>
   </x:si>
   <x:si>
-    <x:t>NOOR MOHAMED ELSAYED ABDALLAH KHALIL TANTAWY</x:t>
+    <x:t>Noor Mohamed Elsayed Abdallah Khalil Tantawy</x:t>
   </x:si>
   <x:si>
     <x:t>1220291</x:t>

--- a/downloaded_files/CMPS403_Tutorial-35896.xlsx
+++ b/downloaded_files/CMPS403_Tutorial-35896.xlsx
@@ -39,7 +39,7 @@
     <x:t>احمد محمد محمود محمد</x:t>
   </x:si>
   <x:si>
-    <x:t>Ahmed Mohammed Mahmoud Mohammed</x:t>
+    <x:t>Ahmed Mohamed Mahmoud Mohamed</x:t>
   </x:si>
   <x:si>
     <x:t>1220162</x:t>
@@ -120,7 +120,7 @@
     <x:t>عبدالله محمد عبدالحميد صبحى المهدى</x:t>
   </x:si>
   <x:si>
-    <x:t>Abdallah Mohamed ElMahdy</x:t>
+    <x:t>Abdallah Mohamed AbdelHameed Sobhy ElMahdy</x:t>
   </x:si>
   <x:si>
     <x:t>1220309</x:t>
@@ -129,7 +129,7 @@
     <x:t>عمرو اشرف على محمود حسن</x:t>
   </x:si>
   <x:si>
-    <x:t>AmrAshrafAli</x:t>
+    <x:t>Amr Ashraf Ali Mahmoud Hassan</x:t>
   </x:si>
   <x:si>
     <x:t>4230159</x:t>
@@ -192,7 +192,7 @@
     <x:t>محمد ممدوح سيد محمد السمرى</x:t>
   </x:si>
   <x:si>
-    <x:t>Mohamed Mamdouh Sayed Mohamed</x:t>
+    <x:t>Mohamed Mamdouh Sayed Mohamed Elsemary</x:t>
   </x:si>
   <x:si>
     <x:t>1220278</x:t>

--- a/downloaded_files/CMPS403_Tutorial-35896.xlsx
+++ b/downloaded_files/CMPS403_Tutorial-35896.xlsx
@@ -1553,11 +1553,11 @@
   <x:pageMargins left="0.18" right="0.18" top="0.6" bottom="0.6" header="0.3" footer="0.3"/>
   <x:pageSetup paperSize="1" scale="100" pageOrder="downThenOver" orientation="default" blackAndWhite="0" draft="0" cellComments="none" errors="displayed"/>
   <x:headerFooter differentOddEven="0" differentFirst="0" scaleWithDoc="1" alignWithMargins="1">
-    <x:oddHeader>&amp;L&amp;"-,Regular"Fall-2025&amp;C&amp;"-,Regular"Class list for Tutorial Compilers and Languages (CMPS403) Location : 2nd floor lab 4 Time : Tuesday(8:11)</x:oddHeader>
+    <x:oddHeader>&amp;L&amp;"-,Regular"Fall-2025&amp;C&amp;"-,Regular"Class list for Tutorial Compilers and Languages (CMPS403) Location : 2nd floor lab 4 Time : Tuesday(9:11)</x:oddHeader>
     <x:oddFooter>&amp;C&amp;"-,Regular"Page &amp;P of &amp;N</x:oddFooter>
-    <x:evenHeader>&amp;L&amp;"-,Regular"Fall-2025&amp;C&amp;"-,Regular"Class list for Tutorial Compilers and Languages (CMPS403) Location : 2nd floor lab 4 Time : Tuesday(8:11)</x:evenHeader>
+    <x:evenHeader>&amp;L&amp;"-,Regular"Fall-2025&amp;C&amp;"-,Regular"Class list for Tutorial Compilers and Languages (CMPS403) Location : 2nd floor lab 4 Time : Tuesday(9:11)</x:evenHeader>
     <x:evenFooter>&amp;C&amp;"-,Regular"Page &amp;P of &amp;N</x:evenFooter>
-    <x:firstHeader>&amp;L&amp;"-,Regular"Fall-2025&amp;C&amp;"-,Regular"Class list for Tutorial Compilers and Languages (CMPS403) Location : 2nd floor lab 4 Time : Tuesday(8:11)</x:firstHeader>
+    <x:firstHeader>&amp;L&amp;"-,Regular"Fall-2025&amp;C&amp;"-,Regular"Class list for Tutorial Compilers and Languages (CMPS403) Location : 2nd floor lab 4 Time : Tuesday(9:11)</x:firstHeader>
     <x:firstFooter>&amp;C&amp;"-,Regular"Page &amp;P of &amp;N</x:firstFooter>
   </x:headerFooter>
   <x:tableParts count="1">
